--- a/fastqFiles/fastq_2002.xlsx
+++ b/fastqFiles/fastq_2002.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1F1338-988F-BC4D-A5EA-741DEB17AB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
   <si>
     <t>libraryDate</t>
   </si>
@@ -40,9 +46,6 @@
     <t>2.1.17</t>
   </si>
   <si>
-    <t>Retrofitted_2002</t>
-  </si>
-  <si>
     <t>sequence/run_2002_samples/2002_Brent_A_TGAGGTT_S2_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -185,13 +188,19 @@
   </si>
   <si>
     <t>sequence/run_2002_samples/2002_Brent_YY_CTCCCGA_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +263,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -300,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +349,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,6 +401,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,14 +594,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50:G58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,12 +623,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -582,18 +637,18 @@
         <v>2002</v>
       </c>
       <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -602,18 +657,18 @@
         <v>2002</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -622,18 +677,18 @@
         <v>2002</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -642,18 +697,18 @@
         <v>2002</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -662,58 +717,58 @@
         <v>2002</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2002</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>2002</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2002</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -722,18 +777,18 @@
         <v>2002</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -742,18 +797,18 @@
         <v>2002</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -762,18 +817,18 @@
         <v>2002</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -782,18 +837,18 @@
         <v>2002</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -802,18 +857,18 @@
         <v>2002</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -822,18 +877,18 @@
         <v>2002</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -842,18 +897,18 @@
         <v>2002</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -862,18 +917,18 @@
         <v>2002</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -882,18 +937,18 @@
         <v>2002</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -902,18 +957,18 @@
         <v>2002</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -922,18 +977,18 @@
         <v>2002</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -942,18 +997,18 @@
         <v>2002</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -962,18 +1017,18 @@
         <v>2002</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -982,18 +1037,18 @@
         <v>2002</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1002,18 +1057,18 @@
         <v>2002</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1022,18 +1077,18 @@
         <v>2002</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1042,18 +1097,18 @@
         <v>2002</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1062,18 +1117,18 @@
         <v>2002</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1082,18 +1137,18 @@
         <v>2002</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1102,18 +1157,18 @@
         <v>2002</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1122,18 +1177,18 @@
         <v>2002</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1142,18 +1197,18 @@
         <v>2002</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1162,18 +1217,18 @@
         <v>2002</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1182,18 +1237,18 @@
         <v>2002</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1202,18 +1257,18 @@
         <v>2002</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1222,18 +1277,18 @@
         <v>2002</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1242,18 +1297,18 @@
         <v>2002</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1262,18 +1317,18 @@
         <v>2002</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1282,18 +1337,18 @@
         <v>2002</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1302,18 +1357,18 @@
         <v>2002</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1322,18 +1377,18 @@
         <v>2002</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1342,18 +1397,18 @@
         <v>2002</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1362,18 +1417,18 @@
         <v>2002</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1382,18 +1437,18 @@
         <v>2002</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1402,18 +1457,18 @@
         <v>2002</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1422,18 +1477,18 @@
         <v>2002</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1442,18 +1497,18 @@
         <v>2002</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1462,18 +1517,18 @@
         <v>2002</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1482,18 +1537,18 @@
         <v>2002</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1502,18 +1557,18 @@
         <v>2002</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1522,10 +1577,10 @@
         <v>2002</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_2002.xlsx
+++ b/fastqFiles/fastq_2002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1F1338-988F-BC4D-A5EA-741DEB17AB18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3769F80-449C-AF40-89DA-4509743C3A72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="57">
   <si>
     <t>libraryDate</t>
   </si>
@@ -40,12 +40,6 @@
     <t>fastqFileName</t>
   </si>
   <si>
-    <t>2.10.17</t>
-  </si>
-  <si>
-    <t>2.1.17</t>
-  </si>
-  <si>
     <t>sequence/run_2002_samples/2002_Brent_A_TGAGGTT_S2_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -194,6 +188,9 @@
   </si>
   <si>
     <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>02.10.17</t>
   </si>
 </sst>
 </file>
@@ -597,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:G58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -625,10 +622,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -637,18 +634,18 @@
         <v>2002</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -657,18 +654,18 @@
         <v>2002</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -677,18 +674,18 @@
         <v>2002</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -697,18 +694,18 @@
         <v>2002</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -717,18 +714,18 @@
         <v>2002</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -737,18 +734,18 @@
         <v>2002</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -757,18 +754,18 @@
         <v>2002</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -777,18 +774,18 @@
         <v>2002</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -797,18 +794,18 @@
         <v>2002</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -817,18 +814,18 @@
         <v>2002</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -837,18 +834,18 @@
         <v>2002</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -857,18 +854,18 @@
         <v>2002</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -877,18 +874,18 @@
         <v>2002</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -897,18 +894,18 @@
         <v>2002</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -917,18 +914,18 @@
         <v>2002</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -937,18 +934,18 @@
         <v>2002</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -957,18 +954,18 @@
         <v>2002</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -977,18 +974,18 @@
         <v>2002</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -997,18 +994,18 @@
         <v>2002</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1017,18 +1014,18 @@
         <v>2002</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1037,18 +1034,18 @@
         <v>2002</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1057,18 +1054,18 @@
         <v>2002</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1077,18 +1074,18 @@
         <v>2002</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1097,18 +1094,18 @@
         <v>2002</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1117,18 +1114,18 @@
         <v>2002</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1137,18 +1134,18 @@
         <v>2002</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1157,18 +1154,18 @@
         <v>2002</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1177,18 +1174,18 @@
         <v>2002</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1197,18 +1194,18 @@
         <v>2002</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1217,18 +1214,18 @@
         <v>2002</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1237,18 +1234,18 @@
         <v>2002</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1257,18 +1254,18 @@
         <v>2002</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1277,18 +1274,18 @@
         <v>2002</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1297,18 +1294,18 @@
         <v>2002</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1317,18 +1314,18 @@
         <v>2002</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1337,18 +1334,18 @@
         <v>2002</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1357,18 +1354,18 @@
         <v>2002</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1377,18 +1374,18 @@
         <v>2002</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1397,18 +1394,18 @@
         <v>2002</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1417,18 +1414,18 @@
         <v>2002</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1437,18 +1434,18 @@
         <v>2002</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1457,18 +1454,18 @@
         <v>2002</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1477,18 +1474,18 @@
         <v>2002</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1497,18 +1494,18 @@
         <v>2002</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1517,18 +1514,18 @@
         <v>2002</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1537,18 +1534,18 @@
         <v>2002</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1557,18 +1554,18 @@
         <v>2002</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1577,10 +1574,10 @@
         <v>2002</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_2002.xlsx
+++ b/fastqFiles/fastq_2002.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -631,7 +631,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">

--- a/fastqFiles/fastq_2002.xlsx
+++ b/fastqFiles/fastq_2002.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="64">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">2002_Brent_A_TGAGGTT_S2_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[128]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002_Brent_B_GCTTAGA_S3_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">2002_Brent_J_GGCAGCG_S11_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[4,128]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002_Brent_K_CCATCAT_S12_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -115,6 +121,9 @@
     <t xml:space="preserve">2002_Brent_S_GAGTACG_S20_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[32,128]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2002_Brent_T_ACAGATA_S21_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -194,6 +203,9 @@
   </si>
   <si>
     <t xml:space="preserve">2002_Brent_WW_GTCTGAT_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[7,128]</t>
   </si>
   <si>
     <t xml:space="preserve">2002_Brent_XX_CAATATC_S51_R1_001.fastq.gz</t>
@@ -299,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I50" activeCellId="0" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -359,11 +371,11 @@
       <c r="H2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -380,16 +392,16 @@
         <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
@@ -406,16 +418,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I4" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -432,16 +444,16 @@
         <v>11</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -458,16 +470,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -484,16 +496,16 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -510,16 +522,16 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>9</v>
       </c>
@@ -536,16 +548,16 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
@@ -562,13 +574,13 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>128</v>
+      <c r="I10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -588,16 +600,16 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>9</v>
       </c>
@@ -614,16 +626,16 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>9</v>
       </c>
@@ -640,16 +652,16 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I13" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>9</v>
       </c>
@@ -666,16 +678,16 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>9</v>
       </c>
@@ -692,16 +704,16 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I15" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>9</v>
       </c>
@@ -718,16 +730,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>9</v>
       </c>
@@ -744,16 +756,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I17" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>9</v>
       </c>
@@ -770,16 +782,16 @@
         <v>11</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I18" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>9</v>
       </c>
@@ -796,16 +808,16 @@
         <v>11</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I19" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>9</v>
       </c>
@@ -822,16 +834,16 @@
         <v>11</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I20" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>9</v>
       </c>
@@ -848,16 +860,16 @@
         <v>11</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>9</v>
       </c>
@@ -874,16 +886,16 @@
         <v>11</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>9</v>
       </c>
@@ -900,16 +912,16 @@
         <v>11</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>9</v>
       </c>
@@ -926,16 +938,16 @@
         <v>11</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>9</v>
       </c>
@@ -952,16 +964,16 @@
         <v>11</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I25" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>9</v>
       </c>
@@ -978,16 +990,16 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>9</v>
       </c>
@@ -1004,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I27" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>9</v>
       </c>
@@ -1030,16 +1042,16 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I28" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>9</v>
       </c>
@@ -1056,16 +1068,16 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I29" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>9</v>
       </c>
@@ -1082,16 +1094,16 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>9</v>
       </c>
@@ -1108,16 +1120,16 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>9</v>
       </c>
@@ -1134,16 +1146,16 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I32" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>9</v>
       </c>
@@ -1160,16 +1172,16 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>9</v>
       </c>
@@ -1186,16 +1198,16 @@
         <v>11</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>9</v>
       </c>
@@ -1212,16 +1224,16 @@
         <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I35" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>9</v>
       </c>
@@ -1238,16 +1250,16 @@
         <v>11</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>9</v>
       </c>
@@ -1264,16 +1276,16 @@
         <v>11</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I37" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>9</v>
       </c>
@@ -1290,16 +1302,16 @@
         <v>11</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I38" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>9</v>
       </c>
@@ -1316,13 +1328,13 @@
         <v>11</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I39" s="0" t="n">
-        <v>128</v>
+      <c r="I39" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1342,16 +1354,16 @@
         <v>11</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I40" s="0" t="n">
-        <v>32128</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I40" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>9</v>
       </c>
@@ -1368,16 +1380,16 @@
         <v>11</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I41" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>9</v>
       </c>
@@ -1394,16 +1406,16 @@
         <v>11</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I42" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I42" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>9</v>
       </c>
@@ -1420,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I43" s="0" t="n">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I43" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>9</v>
       </c>
@@ -1446,16 +1458,16 @@
         <v>11</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I44" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>9</v>
       </c>
@@ -1472,16 +1484,16 @@
         <v>11</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I45" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I45" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>9</v>
       </c>
@@ -1498,13 +1510,13 @@
         <v>11</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I46" s="0" t="n">
-        <v>128</v>
+      <c r="I46" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,16 +1536,16 @@
         <v>11</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I47" s="0" t="n">
-        <v>7128</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I47" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>9</v>
       </c>
@@ -1550,16 +1562,16 @@
         <v>11</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I48" s="0" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I48" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>9</v>
       </c>
@@ -1576,13 +1588,13 @@
         <v>11</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I49" s="0" t="n">
-        <v>128</v>
+      <c r="I49" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
